--- a/examples/3_circle2coplanar_analysis_files/circle-to-coplanar-circle_gradient_max-primer.xlsx
+++ b/examples/3_circle2coplanar_analysis_files/circle-to-coplanar-circle_gradient_max-primer.xlsx
@@ -460,7 +460,7 @@
         <v>0.1278949312448967</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09861162701708912</v>
+        <v>0.09861162701708834</v>
       </c>
       <c r="D2" t="n">
         <v>0.1209334969751428</v>
@@ -517,7 +517,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1125783417704201</v>
+        <v>0.1125783417704202</v>
       </c>
       <c r="C5" t="n">
         <v>0.08534456905720636</v>
@@ -537,7 +537,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1068118093709748</v>
+        <v>0.1068118093709749</v>
       </c>
       <c r="C6" t="n">
         <v>0.08014954851800662</v>
@@ -563,7 +563,7 @@
         <v>0.07419111954496413</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1137012433839022</v>
+        <v>0.1137012433838932</v>
       </c>
       <c r="E7" t="n">
         <v>-0.01817474127306865</v>
@@ -580,10 +580,10 @@
         <v>0.09472114279646307</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06695677288946471</v>
+        <v>0.06695677288946443</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1115678283040597</v>
+        <v>0.1115678283040576</v>
       </c>
       <c r="E8" t="n">
         <v>-0.1063959448539575</v>
@@ -703,13 +703,13 @@
         <v>-0.1493210031335932</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09056685058545703</v>
+        <v>0.09056685058545599</v>
       </c>
       <c r="E14" t="n">
         <v>0.1092896058672819</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1181725224313755</v>
+        <v>0.1181725224313771</v>
       </c>
     </row>
     <row r="15">
@@ -726,10 +726,10 @@
         <v>0.08402772817211827</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1111628140870698</v>
+        <v>0.1111628140870621</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1177941603078261</v>
+        <v>0.1177941603078152</v>
       </c>
     </row>
     <row r="16">
@@ -737,13 +737,13 @@
         <v>150</v>
       </c>
       <c r="B16" t="n">
-        <v>0.04282807483881493</v>
+        <v>0.04282807483881484</v>
       </c>
       <c r="C16" t="n">
         <v>-0.8026150773685041</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07520670012395127</v>
+        <v>0.07520670012394882</v>
       </c>
       <c r="E16" t="n">
         <v>0.112852304810042</v>
@@ -783,7 +783,7 @@
         <v>0.1218315039156331</v>
       </c>
       <c r="D18" t="n">
-        <v>0.04303953743710499</v>
+        <v>0.04303953743710063</v>
       </c>
       <c r="E18" t="n">
         <v>0.1156602005649296</v>
@@ -863,13 +863,13 @@
         <v>0.1301359524558032</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3817626563394413</v>
+        <v>-0.3817626563394734</v>
       </c>
       <c r="E22" t="n">
         <v>0.1189144103129328</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1077662259843577</v>
+        <v>0.1077662259843562</v>
       </c>
     </row>
     <row r="23">
@@ -889,7 +889,7 @@
         <v>0.1192302303634912</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1045914016052638</v>
+        <v>0.1045914016052624</v>
       </c>
     </row>
     <row r="24">
@@ -963,7 +963,7 @@
         <v>0.1299665600520483</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1151788088911204</v>
+        <v>0.1151788088911146</v>
       </c>
       <c r="E27" t="n">
         <v>0.1184979438013879</v>
@@ -983,7 +983,7 @@
         <v>0.1286117874529082</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1170324293360375</v>
+        <v>0.1170324293360379</v>
       </c>
       <c r="E28" t="n">
         <v>0.1178064966469724</v>
@@ -1003,13 +1003,13 @@
         <v>0.1268693888653861</v>
       </c>
       <c r="D29" t="n">
-        <v>0.1186228041175562</v>
+        <v>0.1186228041175597</v>
       </c>
       <c r="E29" t="n">
         <v>0.1169000818954443</v>
       </c>
       <c r="F29" t="n">
-        <v>0.03904014876618007</v>
+        <v>0.03904014876627196</v>
       </c>
     </row>
     <row r="30">
@@ -1029,7 +1029,7 @@
         <v>0.1157656599449279</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.001703846630486368</v>
+        <v>-0.001703846630497474</v>
       </c>
     </row>
     <row r="31">
@@ -1037,7 +1037,7 @@
         <v>300</v>
       </c>
       <c r="B31" t="n">
-        <v>0.1430770694625386</v>
+        <v>0.1430770694625384</v>
       </c>
       <c r="C31" t="n">
         <v>0.1223415357086875</v>
@@ -1049,7 +1049,7 @@
         <v>0.1143830252666304</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.07701659168660781</v>
+        <v>-0.07701659168679365</v>
       </c>
     </row>
     <row r="32">
@@ -1057,7 +1057,7 @@
         <v>310</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1431633887380274</v>
+        <v>0.1431633887380272</v>
       </c>
       <c r="C32" t="n">
         <v>0.1196192981458446</v>
@@ -1066,7 +1066,7 @@
         <v>0.1217728635218344</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1127216154845393</v>
+        <v>0.1127216154845305</v>
       </c>
       <c r="F32" t="n">
         <v>-0.2352699024325427</v>
@@ -1109,7 +1109,7 @@
         <v>0.1083566904663282</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.914137084929597</v>
+        <v>-1.914137084930872</v>
       </c>
     </row>
     <row r="35">
@@ -1123,7 +1123,7 @@
         <v>0.1099854985260517</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1224994889574802</v>
+        <v>0.1224994889574795</v>
       </c>
       <c r="E35" t="n">
         <v>0.105480917042969</v>
@@ -1196,7 +1196,7 @@
         <v>-0.1690798951581571</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1272694756120729</v>
+        <v>-0.1272694756120464</v>
       </c>
       <c r="D2" t="n">
         <v>-0.1537362956980928</v>
@@ -1205,7 +1205,7 @@
         <v>-0.1163973682802614</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.137662822236227</v>
+        <v>-0.1376628222360988</v>
       </c>
     </row>
     <row r="3">
@@ -1213,7 +1213,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1633712946082192</v>
+        <v>-0.1633712946082181</v>
       </c>
       <c r="C3" t="n">
         <v>-0.1219685111554073</v>
@@ -1225,7 +1225,7 @@
         <v>-0.1064893670915819</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1398594564382051</v>
+        <v>-0.1398594564382713</v>
       </c>
     </row>
     <row r="4">
@@ -1253,19 +1253,19 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1503032575862942</v>
+        <v>-0.1503032575862946</v>
       </c>
       <c r="C5" t="n">
         <v>-0.1103350001745321</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1491017134286953</v>
+        <v>-0.1491017134286948</v>
       </c>
       <c r="E5" t="n">
         <v>-0.07102964469322655</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.143643976942812</v>
+        <v>-0.1436439769429462</v>
       </c>
     </row>
     <row r="6">
@@ -1273,7 +1273,7 @@
         <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.1431334808147911</v>
+        <v>-0.1431334808147901</v>
       </c>
       <c r="C6" t="n">
         <v>-0.1036934465482876</v>
@@ -1282,7 +1282,7 @@
         <v>-0.1469880428041326</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.03658299920231288</v>
+        <v>-0.03658299920234779</v>
       </c>
       <c r="F6" t="n">
         <v>-0.1452218018352208</v>
@@ -1299,7 +1299,7 @@
         <v>-0.09607586152747805</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1445855252309425</v>
+        <v>-0.1445855252313153</v>
       </c>
       <c r="E7" t="n">
         <v>0.02294207297452858</v>
@@ -1316,16 +1316,16 @@
         <v>-0.127971088514246</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.08683203059169815</v>
+        <v>-0.08683203059170323</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1418788029250989</v>
+        <v>-0.1418788029249363</v>
       </c>
       <c r="E8" t="n">
         <v>0.1347743015227224</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1477295558117651</v>
+        <v>-0.1477295558117623</v>
       </c>
     </row>
     <row r="9">
@@ -1342,7 +1342,7 @@
         <v>-0.1388382983302722</v>
       </c>
       <c r="E9" t="n">
-        <v>0.3773214038314021</v>
+        <v>0.3773214038314224</v>
       </c>
       <c r="F9" t="n">
         <v>-0.1486536655216001</v>
@@ -1365,7 +1365,7 @@
         <v>1.047057735696923</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1493545019255925</v>
+        <v>-0.149354501925714</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>-0.1315201857425221</v>
       </c>
       <c r="E11" t="n">
-        <v>2.880397577429376</v>
+        <v>2.880397577429817</v>
       </c>
       <c r="F11" t="n">
         <v>-0.1498293414461569</v>
@@ -1393,7 +1393,7 @@
         <v>110</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.09619516535886831</v>
+        <v>-0.09619516535886881</v>
       </c>
       <c r="C12" t="n">
         <v>0.009481358998409723</v>
@@ -1405,7 +1405,7 @@
         <v>-0.1331944586541555</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1500748170982706</v>
+        <v>-0.150074817098209</v>
       </c>
     </row>
     <row r="13">
@@ -1419,13 +1419,13 @@
         <v>0.07580580543735287</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1217078685758495</v>
+        <v>-0.1217078685758436</v>
       </c>
       <c r="E13" t="n">
         <v>-0.1360131032616878</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1500863415085906</v>
+        <v>-0.1500863415086996</v>
       </c>
     </row>
     <row r="14">
@@ -1439,13 +1439,13 @@
         <v>0.188161003808214</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1152074301963446</v>
+        <v>-0.1152074301963978</v>
       </c>
       <c r="E14" t="n">
         <v>-0.1386170124147666</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1498573611870696</v>
+        <v>-0.149857361210988</v>
       </c>
     </row>
     <row r="15">
@@ -1453,7 +1453,7 @@
         <v>140</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.07099019843019808</v>
+        <v>-0.07099019843019792</v>
       </c>
       <c r="C15" t="n">
         <v>0.4145998570035969</v>
@@ -1462,10 +1462,10 @@
         <v>-0.1069051255141277</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1409963806264102</v>
+        <v>-0.1409963806305323</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1493783784444025</v>
+        <v>-0.1493783784718564</v>
       </c>
     </row>
     <row r="16">
@@ -1473,19 +1473,19 @@
         <v>150</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.06128562878557294</v>
+        <v>-0.06128562878557319</v>
       </c>
       <c r="C16" t="n">
         <v>1.016488916425893</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.09570912175570082</v>
+        <v>-0.09570912175582239</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1431429168049441</v>
+        <v>-0.1431429168049539</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1486356422231339</v>
+        <v>-0.1486356422231326</v>
       </c>
     </row>
     <row r="17">
@@ -1499,7 +1499,7 @@
         <v>2.691493802565183</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0796235400603949</v>
+        <v>-0.07962354006039797</v>
       </c>
       <c r="E17" t="n">
         <v>-0.1450498644138023</v>
@@ -1513,16 +1513,16 @@
         <v>170</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.03447910013831561</v>
+        <v>-0.03447910013831552</v>
       </c>
       <c r="C18" t="n">
         <v>-0.1555564666741425</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.05490048216018358</v>
+        <v>-0.05490048216026178</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1467119772000757</v>
+        <v>-0.1467119772000755</v>
       </c>
       <c r="F18" t="n">
         <v>-0.1462711403153791</v>
@@ -1533,7 +1533,7 @@
         <v>180</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.01308559455974074</v>
+        <v>-0.01308559455974075</v>
       </c>
       <c r="C19" t="n">
         <v>-0.1591467022006412</v>
@@ -1545,7 +1545,7 @@
         <v>-0.148125446254127</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.144580386841566</v>
+        <v>-0.144580386841627</v>
       </c>
     </row>
     <row r="20">
@@ -1565,7 +1565,7 @@
         <v>-0.1492877746775438</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.1424787354034471</v>
+        <v>-0.1424787354034588</v>
       </c>
     </row>
     <row r="21">
@@ -1573,10 +1573,10 @@
         <v>200</v>
       </c>
       <c r="B21" t="n">
-        <v>0.05247381794671817</v>
+        <v>0.05247381794671813</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1646178100675351</v>
+        <v>-0.1646178100675333</v>
       </c>
       <c r="D21" t="n">
         <v>0.1886129343950692</v>
@@ -1585,7 +1585,7 @@
         <v>-0.15019759437153</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1398815374505695</v>
+        <v>-0.1398815374506401</v>
       </c>
     </row>
     <row r="22">
@@ -1593,19 +1593,19 @@
         <v>210</v>
       </c>
       <c r="B22" t="n">
-        <v>0.09653637439172404</v>
+        <v>0.09653637439172423</v>
       </c>
       <c r="C22" t="n">
         <v>-0.166460760186803</v>
       </c>
       <c r="D22" t="n">
-        <v>0.483670300433792</v>
+        <v>0.4836703004338568</v>
       </c>
       <c r="E22" t="n">
         <v>-0.1508544186906131</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1366640617584693</v>
+        <v>-0.1366640617773171</v>
       </c>
     </row>
     <row r="23">
@@ -1619,13 +1619,13 @@
         <v>-0.1676964667516801</v>
       </c>
       <c r="D23" t="n">
-        <v>1.334975489357678</v>
+        <v>1.334975489357685</v>
       </c>
       <c r="E23" t="n">
         <v>-0.1512583217912005</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1326383401643353</v>
+        <v>-0.1326383401625661</v>
       </c>
     </row>
     <row r="24">
@@ -1633,7 +1633,7 @@
         <v>230</v>
       </c>
       <c r="B24" t="n">
-        <v>0.2729204671310758</v>
+        <v>0.2729204671310761</v>
       </c>
       <c r="C24" t="n">
         <v>-0.1683257091958598</v>
@@ -1645,7 +1645,7 @@
         <v>-0.1514095316684226</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1275126452902672</v>
+        <v>-0.1275126452903268</v>
       </c>
     </row>
     <row r="25">
@@ -1653,7 +1653,7 @@
         <v>240</v>
       </c>
       <c r="B25" t="n">
-        <v>0.528381020896686</v>
+        <v>0.528381020896685</v>
       </c>
       <c r="C25" t="n">
         <v>-0.1683569621406637</v>
@@ -1665,7 +1665,7 @@
         <v>-0.1513079172341093</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1208175059581307</v>
+        <v>-0.1208175059581267</v>
       </c>
     </row>
     <row r="26">
@@ -1673,10 +1673,10 @@
         <v>250</v>
       </c>
       <c r="B26" t="n">
-        <v>1.265784313310521</v>
+        <v>1.265784313310522</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.1678059563663634</v>
+        <v>-0.1678059563663665</v>
       </c>
       <c r="D26" t="n">
         <v>-0.1435911774952418</v>
@@ -1699,13 +1699,13 @@
         <v>-0.1666950396476903</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1462815991222689</v>
+        <v>-0.1462815991225567</v>
       </c>
       <c r="E27" t="n">
         <v>-0.1503398276939713</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.09896888069539729</v>
+        <v>-0.09896888069542836</v>
       </c>
     </row>
     <row r="28">
@@ -1713,19 +1713,19 @@
         <v>270</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1782711186525537</v>
+        <v>-0.1782711186525535</v>
       </c>
       <c r="C28" t="n">
         <v>-0.1650523516824402</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1486485311008603</v>
+        <v>-0.1486485311006533</v>
       </c>
       <c r="E28" t="n">
         <v>-0.1494644948029713</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.0798735932405585</v>
+        <v>-0.07987359324052984</v>
       </c>
     </row>
     <row r="29">
@@ -1733,19 +1733,19 @@
         <v>280</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.1818434599719798</v>
+        <v>-0.1818434599719795</v>
       </c>
       <c r="C29" t="n">
         <v>-0.1629108306200328</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1506818651834254</v>
+        <v>-0.1506818651829546</v>
       </c>
       <c r="E29" t="n">
         <v>-0.1483161125061931</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.04953693015678602</v>
+        <v>-0.04953693012807981</v>
       </c>
     </row>
     <row r="30">
@@ -1753,7 +1753,7 @@
         <v>290</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.1844077565622252</v>
+        <v>-0.1844077565622265</v>
       </c>
       <c r="C30" t="n">
         <v>-0.1603070692981973</v>
@@ -1765,7 +1765,7 @@
         <v>-0.1468781460380904</v>
       </c>
       <c r="F30" t="n">
-        <v>0.002110689371900893</v>
+        <v>0.002110689372356243</v>
       </c>
     </row>
     <row r="31">
@@ -1773,10 +1773,10 @@
         <v>300</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.1859387288435531</v>
+        <v>-0.1859387288435546</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.1572800359376491</v>
+        <v>-0.1572800359376506</v>
       </c>
       <c r="D31" t="n">
         <v>-0.1537227390923422</v>
@@ -1785,7 +1785,7 @@
         <v>-0.1451249857692477</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09757614065627519</v>
+        <v>0.09757614067555839</v>
       </c>
     </row>
     <row r="32">
@@ -1793,7 +1793,7 @@
         <v>310</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.1864279448704646</v>
+        <v>-0.1864279448704605</v>
       </c>
       <c r="C32" t="n">
         <v>-0.1538696648783334</v>
@@ -1802,10 +1802,10 @@
         <v>-0.1547253458569182</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.1430179030142876</v>
+        <v>-0.1430179030229486</v>
       </c>
       <c r="F32" t="n">
-        <v>0.2981722849065833</v>
+        <v>0.2981722849065375</v>
       </c>
     </row>
     <row r="33">
@@ -1819,7 +1819,7 @@
         <v>-0.1501153052048453</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1553841941236898</v>
+        <v>-0.1553841941237035</v>
       </c>
       <c r="E33" t="n">
         <v>-0.1404989271752473</v>
@@ -1836,16 +1836,16 @@
         <v>-0.1843322032923066</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.1460539842079928</v>
+        <v>-0.1460539842079889</v>
       </c>
       <c r="D34" t="n">
         <v>-0.1557035712393562</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.1374812205268965</v>
+        <v>-0.1374812205268825</v>
       </c>
       <c r="F34" t="n">
-        <v>2.426196354176234</v>
+        <v>2.426196353926</v>
       </c>
     </row>
     <row r="35">
@@ -1853,13 +1853,13 @@
         <v>340</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.1818138011579538</v>
+        <v>-0.1818138011579531</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.1417183905013641</v>
+        <v>-0.1417183905013659</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1556898956177338</v>
+        <v>-0.155689895618095</v>
       </c>
       <c r="E35" t="n">
         <v>-0.1338333407051046</v>
@@ -1882,10 +1882,10 @@
         <v>-0.1553512560691631</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.129352442181509</v>
+        <v>-0.1293524421814663</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1326931414497255</v>
+        <v>-0.1326931414494174</v>
       </c>
     </row>
   </sheetData>
@@ -1989,7 +1989,7 @@
         <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2015,13 +2015,13 @@
         <v>1.000000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>1.191606002815073</v>
+        <v>1.191606002815077</v>
       </c>
       <c r="E6" t="n">
         <v>10.57968206425755</v>
       </c>
       <c r="F6" t="n">
-        <v>1.47350892447042</v>
+        <v>1.473508924470458</v>
       </c>
     </row>
     <row r="7">
@@ -2035,7 +2035,7 @@
         <v>1.083614504772206</v>
       </c>
       <c r="D7" t="n">
-        <v>1.198148196252922</v>
+        <v>1.198148196252171</v>
       </c>
       <c r="E7" t="n">
         <v>18.50306040216387</v>
@@ -2052,16 +2052,16 @@
         <v>0.9999999999999998</v>
       </c>
       <c r="C8" t="n">
-        <v>1.263348955711421</v>
+        <v>1.263348955711431</v>
       </c>
       <c r="D8" t="n">
-        <v>1.198662903550739</v>
+        <v>1.198662903550848</v>
       </c>
       <c r="E8" t="n">
         <v>32.19500264934298</v>
       </c>
       <c r="F8" t="n">
-        <v>1.528117811773351</v>
+        <v>1.528117811773365</v>
       </c>
     </row>
     <row r="9">
@@ -2175,13 +2175,13 @@
         <v>15.33535097736759</v>
       </c>
       <c r="D14" t="n">
-        <v>1.321417212184023</v>
+        <v>1.321417212184071</v>
       </c>
       <c r="E14" t="n">
         <v>1.182905127726476</v>
       </c>
       <c r="F14" t="n">
-        <v>1.682242075973557</v>
+        <v>1.6822420759646</v>
       </c>
     </row>
     <row r="15">
@@ -2198,10 +2198,10 @@
         <v>1.568088454574869</v>
       </c>
       <c r="E15" t="n">
-        <v>1.202701639402802</v>
+        <v>1.202701639402845</v>
       </c>
       <c r="F15" t="n">
-        <v>1.701807369944997</v>
+        <v>1.701807369932548</v>
       </c>
     </row>
     <row r="16">
@@ -2209,13 +2209,13 @@
         <v>150</v>
       </c>
       <c r="B16" t="n">
-        <v>1.0371954244149</v>
+        <v>1.037195424414902</v>
       </c>
       <c r="C16" t="n">
         <v>35.87138250940444</v>
       </c>
       <c r="D16" t="n">
-        <v>2.062223663409607</v>
+        <v>2.062223663409811</v>
       </c>
       <c r="E16" t="n">
         <v>1.223073461865357</v>
@@ -2255,7 +2255,7 @@
         <v>1.000000000000704</v>
       </c>
       <c r="D18" t="n">
-        <v>5.037683555796654</v>
+        <v>5.037683555797241</v>
       </c>
       <c r="E18" t="n">
         <v>1.265526266717712</v>
@@ -2318,7 +2318,7 @@
         <v>25.06676384763008</v>
       </c>
       <c r="E21" t="n">
-        <v>1.332856123325777</v>
+        <v>1.332856123325754</v>
       </c>
       <c r="F21" t="n">
         <v>1.633817099432982</v>
@@ -2335,13 +2335,13 @@
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>41.89199131591555</v>
+        <v>41.89199131591839</v>
       </c>
       <c r="E22" t="n">
         <v>1.355906915678805</v>
       </c>
       <c r="F22" t="n">
-        <v>1.544323759028474</v>
+        <v>1.544323759008111</v>
       </c>
     </row>
     <row r="23">
@@ -2361,7 +2361,7 @@
         <v>1.37897910345598</v>
       </c>
       <c r="F23" t="n">
-        <v>1.483103839195802</v>
+        <v>1.483103839195894</v>
       </c>
     </row>
     <row r="24">
@@ -2401,7 +2401,7 @@
         <v>1.424102771085775</v>
       </c>
       <c r="F25" t="n">
-        <v>1.978416315838321</v>
+        <v>1.978416315838323</v>
       </c>
     </row>
     <row r="26">
@@ -2435,13 +2435,13 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1.000000000000003</v>
+        <v>1.000000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>1.46495052346429</v>
       </c>
       <c r="F27" t="n">
-        <v>4.039826935155638</v>
+        <v>4.039826935155634</v>
       </c>
     </row>
     <row r="28">
@@ -2461,7 +2461,7 @@
         <v>1.482058885434898</v>
       </c>
       <c r="F28" t="n">
-        <v>6.724191396279255</v>
+        <v>6.72419139627924</v>
       </c>
     </row>
     <row r="29">
@@ -2475,13 +2475,13 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>1.005204407235509</v>
+        <v>1.005204407235511</v>
       </c>
       <c r="E29" t="n">
-        <v>1.495518067060834</v>
+        <v>1.495518067060827</v>
       </c>
       <c r="F29" t="n">
-        <v>11.65335253472238</v>
+        <v>11.6533525346715</v>
       </c>
     </row>
     <row r="30">
@@ -2501,7 +2501,7 @@
         <v>1.503728042492498</v>
       </c>
       <c r="F30" t="n">
-        <v>20.47500046729622</v>
+        <v>20.47500046731603</v>
       </c>
     </row>
     <row r="31">
@@ -2509,19 +2509,19 @@
         <v>300</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9999999999999984</v>
+        <v>0.9999999999999988</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="D31" t="n">
         <v>1.029306970386609</v>
       </c>
       <c r="E31" t="n">
-        <v>1.504397058004175</v>
+        <v>1.504397058004176</v>
       </c>
       <c r="F31" t="n">
-        <v>35.96637318715523</v>
+        <v>35.9663731872146</v>
       </c>
     </row>
     <row r="32">
@@ -2529,7 +2529,7 @@
         <v>310</v>
       </c>
       <c r="B32" t="n">
-        <v>0.999999999999999</v>
+        <v>0.9999999999999986</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -2538,7 +2538,7 @@
         <v>1.042705808238975</v>
       </c>
       <c r="E32" t="n">
-        <v>1.494270470376204</v>
+        <v>1.494270470367854</v>
       </c>
       <c r="F32" t="n">
         <v>62.87682325734273</v>
@@ -2581,7 +2581,7 @@
         <v>1.420544975317644</v>
       </c>
       <c r="F34" t="n">
-        <v>188.4643992432063</v>
+        <v>188.4643992433043</v>
       </c>
     </row>
     <row r="35">
@@ -2595,7 +2595,7 @@
         <v>1.000000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>1.087637400758408</v>
+        <v>1.087637400758293</v>
       </c>
       <c r="E35" t="n">
         <v>1.340080598796634</v>
